--- a/CMG.xlsx
+++ b/CMG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55DFAEE-117B-4199-BCA0-8BAD2E05B744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D20900-129F-4589-BF36-A27E0F7195F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{BA57B713-DDF4-431A-94B1-03B4B07CC5CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" activeTab="1" xr2:uid="{BA57B713-DDF4-431A-94B1-03B4B07CC5CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,14 +190,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -211,6 +209,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -232,20 +244,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -584,33 +597,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91EB00-8D0D-481E-A9EB-3AEF505A86B4}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>56.28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="3">
@@ -620,11 +634,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="3">
@@ -632,11 +646,11 @@
         <v>76686.73404000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="3">
@@ -646,8 +660,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="3">
@@ -657,8 +671,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="3">
@@ -675,25 +689,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC895E61-7548-4127-BF03-D15B87365DDD}">
   <dimension ref="A1:AM320"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -719,8 +734,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="3">
@@ -744,44 +759,44 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="2">
-        <f>+C8/C3</f>
+      <c r="C4" s="6">
+        <f t="shared" ref="C4:J4" si="0">+C8/C3</f>
         <v>0.73467121588089324</v>
       </c>
-      <c r="D4" s="2">
-        <f>+D8/D3</f>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
         <v>0.76952294981640146</v>
       </c>
-      <c r="E4" s="2">
-        <f>+E8/E3</f>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
         <v>0.74433845227341167</v>
       </c>
-      <c r="F4" s="2" t="e">
-        <f>+F8/F3</f>
+      <c r="F4" s="6" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G4" s="2">
-        <f>+G8/G3</f>
+      <c r="G4" s="6">
+        <f t="shared" si="0"/>
         <v>0.77661626904282843</v>
       </c>
-      <c r="H4" s="2">
-        <f>+H8/H3</f>
+      <c r="H4" s="6">
+        <f t="shared" si="0"/>
         <v>0.84224277620396604</v>
       </c>
-      <c r="I4" s="2">
-        <f>+I8/I3</f>
+      <c r="I4" s="6">
+        <f t="shared" si="0"/>
         <v>0.77277344398340253</v>
       </c>
-      <c r="J4" s="2" t="e">
-        <f>+J8/J3</f>
+      <c r="J4" s="6" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -791,8 +806,8 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="3">
@@ -845,8 +860,8 @@
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="3">
@@ -899,40 +914,40 @@
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6">
-        <f t="shared" ref="C8:H8" si="0">+C6+C7</f>
+      <c r="C8" s="7">
+        <f t="shared" ref="C8:H8" si="1">+C6+C7</f>
         <v>2368.58</v>
       </c>
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
+      <c r="D8" s="7">
+        <f t="shared" si="1"/>
         <v>2514.8009999999999</v>
       </c>
-      <c r="E8" s="6">
-        <f t="shared" si="0"/>
+      <c r="E8" s="7">
+        <f t="shared" si="1"/>
         <v>2471.9480000000003</v>
       </c>
-      <c r="F8" s="6">
-        <f t="shared" si="0"/>
+      <c r="F8" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
+      <c r="G8" s="7">
+        <f t="shared" si="1"/>
         <v>2701.848</v>
       </c>
-      <c r="H8" s="6">
-        <f t="shared" si="0"/>
+      <c r="H8" s="7">
+        <f t="shared" si="1"/>
         <v>2973.1170000000002</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="7">
         <f>+I6+I7</f>
         <v>2793.576</v>
       </c>
-      <c r="J8" s="6">
-        <f t="shared" ref="J8" si="1">+J6+J7</f>
+      <c r="J8" s="7">
+        <f t="shared" ref="J8" si="2">+J6+J7</f>
         <v>0</v>
       </c>
       <c r="K8" s="3"/>
@@ -965,8 +980,8 @@
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="3">
@@ -1019,8 +1034,8 @@
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="3">
@@ -1073,8 +1088,8 @@
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="3">
@@ -1127,32 +1142,32 @@
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" ref="C12:H12" si="2">+C8-SUM(C9:C11)</f>
+        <f t="shared" ref="C12:H12" si="3">+C8-SUM(C9:C11)</f>
         <v>970.29599999999982</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1040.5619999999999</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>995.21100000000024</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1127.6229999999998</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1244.1540000000002</v>
       </c>
       <c r="I12" s="3">
@@ -1160,7 +1175,7 @@
         <v>1098.644</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" ref="J12" si="3">+J8-SUM(J9:J11)</f>
+        <f t="shared" ref="J12" si="4">+J8-SUM(J9:J11)</f>
         <v>0</v>
       </c>
       <c r="K12" s="3"/>
@@ -1193,8 +1208,8 @@
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="3">
@@ -1247,8 +1262,8 @@
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="3">
@@ -1301,8 +1316,8 @@
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="3">
@@ -1355,8 +1370,8 @@
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="3">
@@ -1409,8 +1424,8 @@
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="3">
@@ -1463,32 +1478,32 @@
       <c r="AL17" s="3"/>
       <c r="AM17" s="3"/>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" ref="C18:H18" si="4">+C12-SUM(C13:C17)</f>
+        <f t="shared" ref="C18:H18" si="5">+C12-SUM(C13:C17)</f>
         <v>367.60599999999977</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>432.80999999999995</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>394.95000000000016</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>441.29199999999969</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>586.05300000000022</v>
       </c>
       <c r="I18" s="3">
@@ -1496,7 +1511,7 @@
         <v>473.25599999999997</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" ref="J18" si="5">+J12-SUM(J13:J17)</f>
+        <f t="shared" ref="J18" si="6">+J12-SUM(J13:J17)</f>
         <v>0</v>
       </c>
       <c r="K18" s="3"/>
@@ -1529,8 +1544,8 @@
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="3">
@@ -1583,32 +1598,32 @@
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" ref="C20:H20" si="6">+C18+C19</f>
+        <f t="shared" ref="C20:H20" si="7">+C18+C19</f>
         <v>376.55499999999978</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>449.25599999999997</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>413.34200000000016</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>460.65599999999966</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>607.91400000000021</v>
       </c>
       <c r="I20" s="3">
@@ -1616,7 +1631,7 @@
         <v>502.56299999999999</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" ref="J20" si="7">+J18+J19</f>
+        <f t="shared" ref="J20" si="8">+J18+J19</f>
         <v>0</v>
       </c>
       <c r="K20" s="3"/>
@@ -1649,8 +1664,8 @@
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="3">
@@ -1703,32 +1718,32 @@
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" ref="C22:H22" si="8">+C20-C21</f>
+        <f t="shared" ref="C22:H22" si="9">+C20-C21</f>
         <v>291.64399999999978</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>342.78999999999996</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>313.21700000000016</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>359.28699999999969</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>455.67100000000022</v>
       </c>
       <c r="I22" s="3">
@@ -1736,7 +1751,7 @@
         <v>387.38799999999998</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" ref="J22" si="9">+J20-J21</f>
+        <f t="shared" ref="J22" si="10">+J20-J21</f>
         <v>0</v>
       </c>
       <c r="K22" s="3"/>
@@ -1769,7 +1784,7 @@
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1808,40 +1823,40 @@
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" ref="C24:H24" si="10">+C22/C25</f>
+        <f t="shared" ref="C24:H24" si="11">+C22/C25</f>
         <v>10.557631045467701</v>
       </c>
-      <c r="D24" s="2">
-        <f t="shared" si="10"/>
+      <c r="D24" s="6">
+        <f t="shared" si="11"/>
         <v>0.24835859738505833</v>
       </c>
-      <c r="E24" s="2">
-        <f t="shared" si="10"/>
+      <c r="E24" s="6">
+        <f t="shared" si="11"/>
         <v>0.22737663563274724</v>
       </c>
-      <c r="F24" s="2" t="e">
-        <f t="shared" si="10"/>
+      <c r="F24" s="6" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="2">
-        <f t="shared" si="10"/>
+      <c r="G24" s="6">
+        <f t="shared" si="11"/>
         <v>13.091641160180721</v>
       </c>
-      <c r="H24" s="2">
-        <f t="shared" si="10"/>
+      <c r="H24" s="6">
+        <f t="shared" si="11"/>
         <v>0.33192817599067614</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="6">
         <f>+I22/I25</f>
         <v>0.28337763836850183</v>
       </c>
-      <c r="J24" s="2" t="e">
-        <f t="shared" ref="J24" si="11">+J22/J25</f>
+      <c r="J24" s="6" t="e">
+        <f t="shared" ref="J24" si="12">+J22/J25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K24" s="3"/>
@@ -1874,8 +1889,8 @@
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="3">
@@ -1928,7 +1943,7 @@
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1967,28 +1982,28 @@
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
     </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="7">
+      <c r="G27" s="8">
         <f>+G3/C3-1</f>
         <v>7.9094292803970179E-2</v>
       </c>
-      <c r="H27" s="7">
-        <f t="shared" ref="H27:J27" si="12">+H3/D3-1</f>
+      <c r="H27" s="8">
+        <f t="shared" ref="H27:J27" si="13">+H3/D3-1</f>
         <v>8.0171358629131051E-2</v>
       </c>
-      <c r="I27" s="7">
-        <f t="shared" si="12"/>
+      <c r="I27" s="8">
+        <f t="shared" si="13"/>
         <v>8.8527551942185978E-2</v>
       </c>
-      <c r="J27" s="7" t="e">
-        <f t="shared" si="12"/>
+      <c r="J27" s="8" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="3"/>
@@ -2021,28 +2036,28 @@
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="7">
+      <c r="G28" s="8">
         <f>+G6/C6-1</f>
         <v>0.14182761529198751</v>
       </c>
-      <c r="H28" s="7">
-        <f t="shared" ref="H28:J28" si="13">+H6/D6-1</f>
+      <c r="H28" s="8">
+        <f t="shared" ref="H28:J28" si="14">+H6/D6-1</f>
         <v>0.18314408476606081</v>
       </c>
-      <c r="I28" s="7">
-        <f t="shared" si="13"/>
+      <c r="I28" s="8">
+        <f t="shared" si="14"/>
         <v>0.13110337417280427</v>
       </c>
-      <c r="J28" s="7" t="e">
-        <f t="shared" si="13"/>
+      <c r="J28" s="8" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="3"/>
@@ -2075,28 +2090,28 @@
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="7">
+      <c r="G29" s="8">
         <f>+G7/C7-1</f>
         <v>-9.6750327243755319E-3</v>
       </c>
-      <c r="H29" s="7">
-        <f t="shared" ref="H29:J29" si="14">+H7/D7-1</f>
+      <c r="H29" s="8">
+        <f t="shared" ref="H29:J29" si="15">+H7/D7-1</f>
         <v>5.2741151977793166E-2</v>
       </c>
-      <c r="I29" s="7">
-        <f t="shared" si="14"/>
+      <c r="I29" s="8">
+        <f t="shared" si="15"/>
         <v>-2.3068703249732869E-2</v>
       </c>
-      <c r="J29" s="7" t="e">
-        <f t="shared" si="14"/>
+      <c r="J29" s="8" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="3"/>
@@ -2129,28 +2144,28 @@
       <c r="AL29" s="3"/>
       <c r="AM29" s="3"/>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="7">
-        <f t="shared" ref="G30:J30" si="15">+G8/C8-1</f>
+      <c r="G30" s="8">
+        <f t="shared" ref="G30:J30" si="16">+G8/C8-1</f>
         <v>0.14070371277305393</v>
       </c>
-      <c r="H30" s="7">
-        <f t="shared" si="15"/>
+      <c r="H30" s="8">
+        <f t="shared" si="16"/>
         <v>0.18224742236065605</v>
       </c>
-      <c r="I30" s="7">
-        <f t="shared" si="15"/>
+      <c r="I30" s="8">
+        <f t="shared" si="16"/>
         <v>0.13011115120544603</v>
       </c>
-      <c r="J30" s="7" t="e">
-        <f t="shared" si="15"/>
+      <c r="J30" s="8" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="3"/>
@@ -2183,40 +2198,40 @@
       <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
     </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="7">
-        <f t="shared" ref="C31:I31" si="16">+C12/C8</f>
+      <c r="C31" s="8">
+        <f t="shared" ref="C31:H31" si="17">+C12/C8</f>
         <v>0.40965304106257749</v>
       </c>
-      <c r="D31" s="7">
-        <f t="shared" si="16"/>
+      <c r="D31" s="8">
+        <f t="shared" si="17"/>
         <v>0.4137750859809583</v>
       </c>
-      <c r="E31" s="7">
-        <f t="shared" si="16"/>
+      <c r="E31" s="8">
+        <f t="shared" si="17"/>
         <v>0.40260191557427588</v>
       </c>
-      <c r="F31" s="7" t="e">
-        <f t="shared" si="16"/>
+      <c r="F31" s="8" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="7">
-        <f t="shared" si="16"/>
+      <c r="G31" s="8">
+        <f t="shared" si="17"/>
         <v>0.41735249355256099</v>
       </c>
-      <c r="H31" s="7">
-        <f t="shared" si="16"/>
+      <c r="H31" s="8">
+        <f t="shared" si="17"/>
         <v>0.41846789076918267</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="8">
         <f>+I12/I8</f>
         <v>0.39327514268450187</v>
       </c>
-      <c r="J31" s="7" t="e">
-        <f t="shared" ref="J31" si="17">+J12/J8</f>
+      <c r="J31" s="8" t="e">
+        <f t="shared" ref="J31" si="18">+J12/J8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="3"/>
@@ -2249,40 +2264,40 @@
       <c r="AL31" s="3"/>
       <c r="AM31" s="3"/>
     </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="7">
-        <f t="shared" ref="C32:I32" si="18">+C18/C8</f>
+      <c r="C32" s="8">
+        <f t="shared" ref="C32:H32" si="19">+C18/C8</f>
         <v>0.15520100651022967</v>
       </c>
-      <c r="D32" s="7">
-        <f t="shared" si="18"/>
+      <c r="D32" s="8">
+        <f t="shared" si="19"/>
         <v>0.17210506914861254</v>
       </c>
-      <c r="E32" s="7">
-        <f t="shared" si="18"/>
+      <c r="E32" s="8">
+        <f t="shared" si="19"/>
         <v>0.1597727783917785</v>
       </c>
-      <c r="F32" s="7" t="e">
-        <f t="shared" si="18"/>
+      <c r="F32" s="8" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="7">
-        <f t="shared" si="18"/>
+      <c r="G32" s="8">
+        <f t="shared" si="19"/>
         <v>0.16332969138160242</v>
       </c>
-      <c r="H32" s="7">
-        <f t="shared" si="18"/>
+      <c r="H32" s="8">
+        <f t="shared" si="19"/>
         <v>0.19711736874129077</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="8">
         <f>+I18/I8</f>
         <v>0.16940867189580666</v>
       </c>
-      <c r="J32" s="7" t="e">
-        <f t="shared" ref="J32" si="19">+J18/J8</f>
+      <c r="J32" s="8" t="e">
+        <f t="shared" ref="J32" si="20">+J18/J8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="3"/>
@@ -2315,40 +2330,40 @@
       <c r="AL32" s="3"/>
       <c r="AM32" s="3"/>
     </row>
-    <row r="33" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="7">
-        <f t="shared" ref="C33:I33" si="20">+C21/C20</f>
+      <c r="C33" s="8">
+        <f t="shared" ref="C33:H33" si="21">+C21/C20</f>
         <v>0.22549428370357597</v>
       </c>
-      <c r="D33" s="7">
-        <f t="shared" si="20"/>
+      <c r="D33" s="8">
+        <f t="shared" si="21"/>
         <v>0.23698292287693432</v>
       </c>
-      <c r="E33" s="7">
-        <f t="shared" si="20"/>
+      <c r="E33" s="8">
+        <f t="shared" si="21"/>
         <v>0.24223282415046127</v>
       </c>
-      <c r="F33" s="7" t="e">
-        <f t="shared" si="20"/>
+      <c r="F33" s="8" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="7">
-        <f t="shared" si="20"/>
+      <c r="G33" s="8">
+        <f t="shared" si="21"/>
         <v>0.22005357577020612</v>
       </c>
-      <c r="H33" s="7">
-        <f t="shared" si="20"/>
+      <c r="H33" s="8">
+        <f t="shared" si="21"/>
         <v>0.25043509443769996</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="8">
         <f>+I21/I20</f>
         <v>0.22917524768039033</v>
       </c>
-      <c r="J33" s="7" t="e">
-        <f t="shared" ref="J33" si="21">+J21/J20</f>
+      <c r="J33" s="8" t="e">
+        <f t="shared" ref="J33" si="22">+J21/J20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="3"/>
@@ -2381,7 +2396,7 @@
       <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
     </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2420,7 +2435,7 @@
       <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
     </row>
-    <row r="35" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2459,7 +2474,7 @@
       <c r="AL35" s="3"/>
       <c r="AM35" s="3"/>
     </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2498,7 +2513,7 @@
       <c r="AL36" s="3"/>
       <c r="AM36" s="3"/>
     </row>
-    <row r="37" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2537,7 +2552,7 @@
       <c r="AL37" s="3"/>
       <c r="AM37" s="3"/>
     </row>
-    <row r="38" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2576,7 +2591,7 @@
       <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
     </row>
-    <row r="39" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2615,7 +2630,7 @@
       <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
     </row>
-    <row r="40" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2654,7 +2669,7 @@
       <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
     </row>
-    <row r="41" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2693,7 +2708,7 @@
       <c r="AL41" s="3"/>
       <c r="AM41" s="3"/>
     </row>
-    <row r="42" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2732,7 +2747,7 @@
       <c r="AL42" s="3"/>
       <c r="AM42" s="3"/>
     </row>
-    <row r="43" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2771,7 +2786,7 @@
       <c r="AL43" s="3"/>
       <c r="AM43" s="3"/>
     </row>
-    <row r="44" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2810,7 +2825,7 @@
       <c r="AL44" s="3"/>
       <c r="AM44" s="3"/>
     </row>
-    <row r="45" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2849,7 +2864,7 @@
       <c r="AL45" s="3"/>
       <c r="AM45" s="3"/>
     </row>
-    <row r="46" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2888,7 +2903,7 @@
       <c r="AL46" s="3"/>
       <c r="AM46" s="3"/>
     </row>
-    <row r="47" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2927,7 +2942,7 @@
       <c r="AL47" s="3"/>
       <c r="AM47" s="3"/>
     </row>
-    <row r="48" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:39" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2966,7 +2981,7 @@
       <c r="AL48" s="3"/>
       <c r="AM48" s="3"/>
     </row>
-    <row r="49" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -3005,7 +3020,7 @@
       <c r="AL49" s="3"/>
       <c r="AM49" s="3"/>
     </row>
-    <row r="50" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -3044,7 +3059,7 @@
       <c r="AL50" s="3"/>
       <c r="AM50" s="3"/>
     </row>
-    <row r="51" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -3083,7 +3098,7 @@
       <c r="AL51" s="3"/>
       <c r="AM51" s="3"/>
     </row>
-    <row r="52" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -3122,7 +3137,7 @@
       <c r="AL52" s="3"/>
       <c r="AM52" s="3"/>
     </row>
-    <row r="53" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -3161,7 +3176,7 @@
       <c r="AL53" s="3"/>
       <c r="AM53" s="3"/>
     </row>
-    <row r="54" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -3200,7 +3215,7 @@
       <c r="AL54" s="3"/>
       <c r="AM54" s="3"/>
     </row>
-    <row r="55" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -3239,7 +3254,7 @@
       <c r="AL55" s="3"/>
       <c r="AM55" s="3"/>
     </row>
-    <row r="56" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -3278,7 +3293,7 @@
       <c r="AL56" s="3"/>
       <c r="AM56" s="3"/>
     </row>
-    <row r="57" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -3317,7 +3332,7 @@
       <c r="AL57" s="3"/>
       <c r="AM57" s="3"/>
     </row>
-    <row r="58" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -3356,7 +3371,7 @@
       <c r="AL58" s="3"/>
       <c r="AM58" s="3"/>
     </row>
-    <row r="59" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -3395,7 +3410,7 @@
       <c r="AL59" s="3"/>
       <c r="AM59" s="3"/>
     </row>
-    <row r="60" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -3434,7 +3449,7 @@
       <c r="AL60" s="3"/>
       <c r="AM60" s="3"/>
     </row>
-    <row r="61" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -3473,7 +3488,7 @@
       <c r="AL61" s="3"/>
       <c r="AM61" s="3"/>
     </row>
-    <row r="62" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -3512,7 +3527,7 @@
       <c r="AL62" s="3"/>
       <c r="AM62" s="3"/>
     </row>
-    <row r="63" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -3551,7 +3566,7 @@
       <c r="AL63" s="3"/>
       <c r="AM63" s="3"/>
     </row>
-    <row r="64" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -3590,7 +3605,7 @@
       <c r="AL64" s="3"/>
       <c r="AM64" s="3"/>
     </row>
-    <row r="65" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -3629,7 +3644,7 @@
       <c r="AL65" s="3"/>
       <c r="AM65" s="3"/>
     </row>
-    <row r="66" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -3668,7 +3683,7 @@
       <c r="AL66" s="3"/>
       <c r="AM66" s="3"/>
     </row>
-    <row r="67" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -3707,7 +3722,7 @@
       <c r="AL67" s="3"/>
       <c r="AM67" s="3"/>
     </row>
-    <row r="68" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -3746,7 +3761,7 @@
       <c r="AL68" s="3"/>
       <c r="AM68" s="3"/>
     </row>
-    <row r="69" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -3785,7 +3800,7 @@
       <c r="AL69" s="3"/>
       <c r="AM69" s="3"/>
     </row>
-    <row r="70" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3824,7 +3839,7 @@
       <c r="AL70" s="3"/>
       <c r="AM70" s="3"/>
     </row>
-    <row r="71" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -3863,7 +3878,7 @@
       <c r="AL71" s="3"/>
       <c r="AM71" s="3"/>
     </row>
-    <row r="72" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3902,7 +3917,7 @@
       <c r="AL72" s="3"/>
       <c r="AM72" s="3"/>
     </row>
-    <row r="73" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -3941,7 +3956,7 @@
       <c r="AL73" s="3"/>
       <c r="AM73" s="3"/>
     </row>
-    <row r="74" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -3980,7 +3995,7 @@
       <c r="AL74" s="3"/>
       <c r="AM74" s="3"/>
     </row>
-    <row r="75" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -4019,7 +4034,7 @@
       <c r="AL75" s="3"/>
       <c r="AM75" s="3"/>
     </row>
-    <row r="76" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -4058,7 +4073,7 @@
       <c r="AL76" s="3"/>
       <c r="AM76" s="3"/>
     </row>
-    <row r="77" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -4097,7 +4112,7 @@
       <c r="AL77" s="3"/>
       <c r="AM77" s="3"/>
     </row>
-    <row r="78" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -4136,7 +4151,7 @@
       <c r="AL78" s="3"/>
       <c r="AM78" s="3"/>
     </row>
-    <row r="79" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -4175,7 +4190,7 @@
       <c r="AL79" s="3"/>
       <c r="AM79" s="3"/>
     </row>
-    <row r="80" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -4214,7 +4229,7 @@
       <c r="AL80" s="3"/>
       <c r="AM80" s="3"/>
     </row>
-    <row r="81" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -4253,7 +4268,7 @@
       <c r="AL81" s="3"/>
       <c r="AM81" s="3"/>
     </row>
-    <row r="82" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -4292,7 +4307,7 @@
       <c r="AL82" s="3"/>
       <c r="AM82" s="3"/>
     </row>
-    <row r="83" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -4331,7 +4346,7 @@
       <c r="AL83" s="3"/>
       <c r="AM83" s="3"/>
     </row>
-    <row r="84" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -4370,7 +4385,7 @@
       <c r="AL84" s="3"/>
       <c r="AM84" s="3"/>
     </row>
-    <row r="85" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -4409,7 +4424,7 @@
       <c r="AL85" s="3"/>
       <c r="AM85" s="3"/>
     </row>
-    <row r="86" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -4448,7 +4463,7 @@
       <c r="AL86" s="3"/>
       <c r="AM86" s="3"/>
     </row>
-    <row r="87" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -4487,7 +4502,7 @@
       <c r="AL87" s="3"/>
       <c r="AM87" s="3"/>
     </row>
-    <row r="88" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -4526,7 +4541,7 @@
       <c r="AL88" s="3"/>
       <c r="AM88" s="3"/>
     </row>
-    <row r="89" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -4565,7 +4580,7 @@
       <c r="AL89" s="3"/>
       <c r="AM89" s="3"/>
     </row>
-    <row r="90" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -4604,7 +4619,7 @@
       <c r="AL90" s="3"/>
       <c r="AM90" s="3"/>
     </row>
-    <row r="91" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -4643,7 +4658,7 @@
       <c r="AL91" s="3"/>
       <c r="AM91" s="3"/>
     </row>
-    <row r="92" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -4682,7 +4697,7 @@
       <c r="AL92" s="3"/>
       <c r="AM92" s="3"/>
     </row>
-    <row r="93" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -4721,7 +4736,7 @@
       <c r="AL93" s="3"/>
       <c r="AM93" s="3"/>
     </row>
-    <row r="94" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -4760,7 +4775,7 @@
       <c r="AL94" s="3"/>
       <c r="AM94" s="3"/>
     </row>
-    <row r="95" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -4799,7 +4814,7 @@
       <c r="AL95" s="3"/>
       <c r="AM95" s="3"/>
     </row>
-    <row r="96" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -4838,7 +4853,7 @@
       <c r="AL96" s="3"/>
       <c r="AM96" s="3"/>
     </row>
-    <row r="97" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -4877,7 +4892,7 @@
       <c r="AL97" s="3"/>
       <c r="AM97" s="3"/>
     </row>
-    <row r="98" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -4916,7 +4931,7 @@
       <c r="AL98" s="3"/>
       <c r="AM98" s="3"/>
     </row>
-    <row r="99" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -4955,7 +4970,7 @@
       <c r="AL99" s="3"/>
       <c r="AM99" s="3"/>
     </row>
-    <row r="100" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -4994,7 +5009,7 @@
       <c r="AL100" s="3"/>
       <c r="AM100" s="3"/>
     </row>
-    <row r="101" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -5033,7 +5048,7 @@
       <c r="AL101" s="3"/>
       <c r="AM101" s="3"/>
     </row>
-    <row r="102" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -5072,7 +5087,7 @@
       <c r="AL102" s="3"/>
       <c r="AM102" s="3"/>
     </row>
-    <row r="103" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -5111,7 +5126,7 @@
       <c r="AL103" s="3"/>
       <c r="AM103" s="3"/>
     </row>
-    <row r="104" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -5150,7 +5165,7 @@
       <c r="AL104" s="3"/>
       <c r="AM104" s="3"/>
     </row>
-    <row r="105" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -5189,7 +5204,7 @@
       <c r="AL105" s="3"/>
       <c r="AM105" s="3"/>
     </row>
-    <row r="106" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -5228,7 +5243,7 @@
       <c r="AL106" s="3"/>
       <c r="AM106" s="3"/>
     </row>
-    <row r="107" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -5267,7 +5282,7 @@
       <c r="AL107" s="3"/>
       <c r="AM107" s="3"/>
     </row>
-    <row r="108" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -5306,7 +5321,7 @@
       <c r="AL108" s="3"/>
       <c r="AM108" s="3"/>
     </row>
-    <row r="109" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -5345,7 +5360,7 @@
       <c r="AL109" s="3"/>
       <c r="AM109" s="3"/>
     </row>
-    <row r="110" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -5384,7 +5399,7 @@
       <c r="AL110" s="3"/>
       <c r="AM110" s="3"/>
     </row>
-    <row r="111" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -5423,7 +5438,7 @@
       <c r="AL111" s="3"/>
       <c r="AM111" s="3"/>
     </row>
-    <row r="112" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -5462,7 +5477,7 @@
       <c r="AL112" s="3"/>
       <c r="AM112" s="3"/>
     </row>
-    <row r="113" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -5501,7 +5516,7 @@
       <c r="AL113" s="3"/>
       <c r="AM113" s="3"/>
     </row>
-    <row r="114" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -5540,7 +5555,7 @@
       <c r="AL114" s="3"/>
       <c r="AM114" s="3"/>
     </row>
-    <row r="115" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -5579,7 +5594,7 @@
       <c r="AL115" s="3"/>
       <c r="AM115" s="3"/>
     </row>
-    <row r="116" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -5618,7 +5633,7 @@
       <c r="AL116" s="3"/>
       <c r="AM116" s="3"/>
     </row>
-    <row r="117" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -5657,7 +5672,7 @@
       <c r="AL117" s="3"/>
       <c r="AM117" s="3"/>
     </row>
-    <row r="118" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -5696,7 +5711,7 @@
       <c r="AL118" s="3"/>
       <c r="AM118" s="3"/>
     </row>
-    <row r="119" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -5735,7 +5750,7 @@
       <c r="AL119" s="3"/>
       <c r="AM119" s="3"/>
     </row>
-    <row r="120" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -5774,7 +5789,7 @@
       <c r="AL120" s="3"/>
       <c r="AM120" s="3"/>
     </row>
-    <row r="121" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -5813,7 +5828,7 @@
       <c r="AL121" s="3"/>
       <c r="AM121" s="3"/>
     </row>
-    <row r="122" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -5852,7 +5867,7 @@
       <c r="AL122" s="3"/>
       <c r="AM122" s="3"/>
     </row>
-    <row r="123" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -5891,7 +5906,7 @@
       <c r="AL123" s="3"/>
       <c r="AM123" s="3"/>
     </row>
-    <row r="124" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -5930,7 +5945,7 @@
       <c r="AL124" s="3"/>
       <c r="AM124" s="3"/>
     </row>
-    <row r="125" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -5969,7 +5984,7 @@
       <c r="AL125" s="3"/>
       <c r="AM125" s="3"/>
     </row>
-    <row r="126" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -6008,7 +6023,7 @@
       <c r="AL126" s="3"/>
       <c r="AM126" s="3"/>
     </row>
-    <row r="127" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -6047,7 +6062,7 @@
       <c r="AL127" s="3"/>
       <c r="AM127" s="3"/>
     </row>
-    <row r="128" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -6086,7 +6101,7 @@
       <c r="AL128" s="3"/>
       <c r="AM128" s="3"/>
     </row>
-    <row r="129" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -6125,7 +6140,7 @@
       <c r="AL129" s="3"/>
       <c r="AM129" s="3"/>
     </row>
-    <row r="130" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -6164,7 +6179,7 @@
       <c r="AL130" s="3"/>
       <c r="AM130" s="3"/>
     </row>
-    <row r="131" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -6203,7 +6218,7 @@
       <c r="AL131" s="3"/>
       <c r="AM131" s="3"/>
     </row>
-    <row r="132" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -6242,7 +6257,7 @@
       <c r="AL132" s="3"/>
       <c r="AM132" s="3"/>
     </row>
-    <row r="133" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -6281,7 +6296,7 @@
       <c r="AL133" s="3"/>
       <c r="AM133" s="3"/>
     </row>
-    <row r="134" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -6320,7 +6335,7 @@
       <c r="AL134" s="3"/>
       <c r="AM134" s="3"/>
     </row>
-    <row r="135" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -6359,7 +6374,7 @@
       <c r="AL135" s="3"/>
       <c r="AM135" s="3"/>
     </row>
-    <row r="136" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -6398,7 +6413,7 @@
       <c r="AL136" s="3"/>
       <c r="AM136" s="3"/>
     </row>
-    <row r="137" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -6437,7 +6452,7 @@
       <c r="AL137" s="3"/>
       <c r="AM137" s="3"/>
     </row>
-    <row r="138" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -6476,7 +6491,7 @@
       <c r="AL138" s="3"/>
       <c r="AM138" s="3"/>
     </row>
-    <row r="139" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -6515,7 +6530,7 @@
       <c r="AL139" s="3"/>
       <c r="AM139" s="3"/>
     </row>
-    <row r="140" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -6554,7 +6569,7 @@
       <c r="AL140" s="3"/>
       <c r="AM140" s="3"/>
     </row>
-    <row r="141" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -6593,7 +6608,7 @@
       <c r="AL141" s="3"/>
       <c r="AM141" s="3"/>
     </row>
-    <row r="142" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -6632,7 +6647,7 @@
       <c r="AL142" s="3"/>
       <c r="AM142" s="3"/>
     </row>
-    <row r="143" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -6671,7 +6686,7 @@
       <c r="AL143" s="3"/>
       <c r="AM143" s="3"/>
     </row>
-    <row r="144" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -6710,7 +6725,7 @@
       <c r="AL144" s="3"/>
       <c r="AM144" s="3"/>
     </row>
-    <row r="145" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -6749,7 +6764,7 @@
       <c r="AL145" s="3"/>
       <c r="AM145" s="3"/>
     </row>
-    <row r="146" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -6788,7 +6803,7 @@
       <c r="AL146" s="3"/>
       <c r="AM146" s="3"/>
     </row>
-    <row r="147" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -6827,7 +6842,7 @@
       <c r="AL147" s="3"/>
       <c r="AM147" s="3"/>
     </row>
-    <row r="148" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -6866,7 +6881,7 @@
       <c r="AL148" s="3"/>
       <c r="AM148" s="3"/>
     </row>
-    <row r="149" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -6905,7 +6920,7 @@
       <c r="AL149" s="3"/>
       <c r="AM149" s="3"/>
     </row>
-    <row r="150" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -6944,7 +6959,7 @@
       <c r="AL150" s="3"/>
       <c r="AM150" s="3"/>
     </row>
-    <row r="151" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -6983,7 +6998,7 @@
       <c r="AL151" s="3"/>
       <c r="AM151" s="3"/>
     </row>
-    <row r="152" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -7022,7 +7037,7 @@
       <c r="AL152" s="3"/>
       <c r="AM152" s="3"/>
     </row>
-    <row r="153" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -7061,7 +7076,7 @@
       <c r="AL153" s="3"/>
       <c r="AM153" s="3"/>
     </row>
-    <row r="154" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -7100,7 +7115,7 @@
       <c r="AL154" s="3"/>
       <c r="AM154" s="3"/>
     </row>
-    <row r="155" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -7139,7 +7154,7 @@
       <c r="AL155" s="3"/>
       <c r="AM155" s="3"/>
     </row>
-    <row r="156" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -7178,7 +7193,7 @@
       <c r="AL156" s="3"/>
       <c r="AM156" s="3"/>
     </row>
-    <row r="157" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -7217,7 +7232,7 @@
       <c r="AL157" s="3"/>
       <c r="AM157" s="3"/>
     </row>
-    <row r="158" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -7256,7 +7271,7 @@
       <c r="AL158" s="3"/>
       <c r="AM158" s="3"/>
     </row>
-    <row r="159" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -7295,7 +7310,7 @@
       <c r="AL159" s="3"/>
       <c r="AM159" s="3"/>
     </row>
-    <row r="160" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -7334,7 +7349,7 @@
       <c r="AL160" s="3"/>
       <c r="AM160" s="3"/>
     </row>
-    <row r="161" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -7373,7 +7388,7 @@
       <c r="AL161" s="3"/>
       <c r="AM161" s="3"/>
     </row>
-    <row r="162" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -7412,7 +7427,7 @@
       <c r="AL162" s="3"/>
       <c r="AM162" s="3"/>
     </row>
-    <row r="163" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -7451,7 +7466,7 @@
       <c r="AL163" s="3"/>
       <c r="AM163" s="3"/>
     </row>
-    <row r="164" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -7490,7 +7505,7 @@
       <c r="AL164" s="3"/>
       <c r="AM164" s="3"/>
     </row>
-    <row r="165" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -7529,7 +7544,7 @@
       <c r="AL165" s="3"/>
       <c r="AM165" s="3"/>
     </row>
-    <row r="166" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -7568,7 +7583,7 @@
       <c r="AL166" s="3"/>
       <c r="AM166" s="3"/>
     </row>
-    <row r="167" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -7607,7 +7622,7 @@
       <c r="AL167" s="3"/>
       <c r="AM167" s="3"/>
     </row>
-    <row r="168" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -7646,7 +7661,7 @@
       <c r="AL168" s="3"/>
       <c r="AM168" s="3"/>
     </row>
-    <row r="169" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -7685,7 +7700,7 @@
       <c r="AL169" s="3"/>
       <c r="AM169" s="3"/>
     </row>
-    <row r="170" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -7724,7 +7739,7 @@
       <c r="AL170" s="3"/>
       <c r="AM170" s="3"/>
     </row>
-    <row r="171" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -7763,7 +7778,7 @@
       <c r="AL171" s="3"/>
       <c r="AM171" s="3"/>
     </row>
-    <row r="172" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -7802,7 +7817,7 @@
       <c r="AL172" s="3"/>
       <c r="AM172" s="3"/>
     </row>
-    <row r="173" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -7841,7 +7856,7 @@
       <c r="AL173" s="3"/>
       <c r="AM173" s="3"/>
     </row>
-    <row r="174" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -7880,7 +7895,7 @@
       <c r="AL174" s="3"/>
       <c r="AM174" s="3"/>
     </row>
-    <row r="175" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -7919,7 +7934,7 @@
       <c r="AL175" s="3"/>
       <c r="AM175" s="3"/>
     </row>
-    <row r="176" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -7958,7 +7973,7 @@
       <c r="AL176" s="3"/>
       <c r="AM176" s="3"/>
     </row>
-    <row r="177" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -7997,7 +8012,7 @@
       <c r="AL177" s="3"/>
       <c r="AM177" s="3"/>
     </row>
-    <row r="178" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -8036,7 +8051,7 @@
       <c r="AL178" s="3"/>
       <c r="AM178" s="3"/>
     </row>
-    <row r="179" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -8075,7 +8090,7 @@
       <c r="AL179" s="3"/>
       <c r="AM179" s="3"/>
     </row>
-    <row r="180" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -8114,7 +8129,7 @@
       <c r="AL180" s="3"/>
       <c r="AM180" s="3"/>
     </row>
-    <row r="181" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -8153,7 +8168,7 @@
       <c r="AL181" s="3"/>
       <c r="AM181" s="3"/>
     </row>
-    <row r="182" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -8192,7 +8207,7 @@
       <c r="AL182" s="3"/>
       <c r="AM182" s="3"/>
     </row>
-    <row r="183" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -8231,7 +8246,7 @@
       <c r="AL183" s="3"/>
       <c r="AM183" s="3"/>
     </row>
-    <row r="184" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -8270,7 +8285,7 @@
       <c r="AL184" s="3"/>
       <c r="AM184" s="3"/>
     </row>
-    <row r="185" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -8309,7 +8324,7 @@
       <c r="AL185" s="3"/>
       <c r="AM185" s="3"/>
     </row>
-    <row r="186" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -8348,7 +8363,7 @@
       <c r="AL186" s="3"/>
       <c r="AM186" s="3"/>
     </row>
-    <row r="187" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -8387,7 +8402,7 @@
       <c r="AL187" s="3"/>
       <c r="AM187" s="3"/>
     </row>
-    <row r="188" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -8426,7 +8441,7 @@
       <c r="AL188" s="3"/>
       <c r="AM188" s="3"/>
     </row>
-    <row r="189" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -8465,7 +8480,7 @@
       <c r="AL189" s="3"/>
       <c r="AM189" s="3"/>
     </row>
-    <row r="190" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -8504,7 +8519,7 @@
       <c r="AL190" s="3"/>
       <c r="AM190" s="3"/>
     </row>
-    <row r="191" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -8543,7 +8558,7 @@
       <c r="AL191" s="3"/>
       <c r="AM191" s="3"/>
     </row>
-    <row r="192" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -8582,7 +8597,7 @@
       <c r="AL192" s="3"/>
       <c r="AM192" s="3"/>
     </row>
-    <row r="193" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -8621,7 +8636,7 @@
       <c r="AL193" s="3"/>
       <c r="AM193" s="3"/>
     </row>
-    <row r="194" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -8660,7 +8675,7 @@
       <c r="AL194" s="3"/>
       <c r="AM194" s="3"/>
     </row>
-    <row r="195" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -8699,7 +8714,7 @@
       <c r="AL195" s="3"/>
       <c r="AM195" s="3"/>
     </row>
-    <row r="196" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -8738,7 +8753,7 @@
       <c r="AL196" s="3"/>
       <c r="AM196" s="3"/>
     </row>
-    <row r="197" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -8777,7 +8792,7 @@
       <c r="AL197" s="3"/>
       <c r="AM197" s="3"/>
     </row>
-    <row r="198" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -8816,7 +8831,7 @@
       <c r="AL198" s="3"/>
       <c r="AM198" s="3"/>
     </row>
-    <row r="199" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -8855,7 +8870,7 @@
       <c r="AL199" s="3"/>
       <c r="AM199" s="3"/>
     </row>
-    <row r="200" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -8894,7 +8909,7 @@
       <c r="AL200" s="3"/>
       <c r="AM200" s="3"/>
     </row>
-    <row r="201" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -8933,7 +8948,7 @@
       <c r="AL201" s="3"/>
       <c r="AM201" s="3"/>
     </row>
-    <row r="202" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -8972,7 +8987,7 @@
       <c r="AL202" s="3"/>
       <c r="AM202" s="3"/>
     </row>
-    <row r="203" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -9011,7 +9026,7 @@
       <c r="AL203" s="3"/>
       <c r="AM203" s="3"/>
     </row>
-    <row r="204" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -9050,7 +9065,7 @@
       <c r="AL204" s="3"/>
       <c r="AM204" s="3"/>
     </row>
-    <row r="205" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -9089,7 +9104,7 @@
       <c r="AL205" s="3"/>
       <c r="AM205" s="3"/>
     </row>
-    <row r="206" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -9128,7 +9143,7 @@
       <c r="AL206" s="3"/>
       <c r="AM206" s="3"/>
     </row>
-    <row r="207" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -9167,7 +9182,7 @@
       <c r="AL207" s="3"/>
       <c r="AM207" s="3"/>
     </row>
-    <row r="208" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -9206,7 +9221,7 @@
       <c r="AL208" s="3"/>
       <c r="AM208" s="3"/>
     </row>
-    <row r="209" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -9245,7 +9260,7 @@
       <c r="AL209" s="3"/>
       <c r="AM209" s="3"/>
     </row>
-    <row r="210" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -9284,7 +9299,7 @@
       <c r="AL210" s="3"/>
       <c r="AM210" s="3"/>
     </row>
-    <row r="211" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -9323,7 +9338,7 @@
       <c r="AL211" s="3"/>
       <c r="AM211" s="3"/>
     </row>
-    <row r="212" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -9362,7 +9377,7 @@
       <c r="AL212" s="3"/>
       <c r="AM212" s="3"/>
     </row>
-    <row r="213" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -9401,7 +9416,7 @@
       <c r="AL213" s="3"/>
       <c r="AM213" s="3"/>
     </row>
-    <row r="214" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -9440,7 +9455,7 @@
       <c r="AL214" s="3"/>
       <c r="AM214" s="3"/>
     </row>
-    <row r="215" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -9479,7 +9494,7 @@
       <c r="AL215" s="3"/>
       <c r="AM215" s="3"/>
     </row>
-    <row r="216" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -9518,7 +9533,7 @@
       <c r="AL216" s="3"/>
       <c r="AM216" s="3"/>
     </row>
-    <row r="217" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -9557,7 +9572,7 @@
       <c r="AL217" s="3"/>
       <c r="AM217" s="3"/>
     </row>
-    <row r="218" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -9596,7 +9611,7 @@
       <c r="AL218" s="3"/>
       <c r="AM218" s="3"/>
     </row>
-    <row r="219" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -9635,7 +9650,7 @@
       <c r="AL219" s="3"/>
       <c r="AM219" s="3"/>
     </row>
-    <row r="220" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -9674,7 +9689,7 @@
       <c r="AL220" s="3"/>
       <c r="AM220" s="3"/>
     </row>
-    <row r="221" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -9713,7 +9728,7 @@
       <c r="AL221" s="3"/>
       <c r="AM221" s="3"/>
     </row>
-    <row r="222" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -9752,7 +9767,7 @@
       <c r="AL222" s="3"/>
       <c r="AM222" s="3"/>
     </row>
-    <row r="223" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -9791,7 +9806,7 @@
       <c r="AL223" s="3"/>
       <c r="AM223" s="3"/>
     </row>
-    <row r="224" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -9830,7 +9845,7 @@
       <c r="AL224" s="3"/>
       <c r="AM224" s="3"/>
     </row>
-    <row r="225" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -9869,7 +9884,7 @@
       <c r="AL225" s="3"/>
       <c r="AM225" s="3"/>
     </row>
-    <row r="226" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -9908,7 +9923,7 @@
       <c r="AL226" s="3"/>
       <c r="AM226" s="3"/>
     </row>
-    <row r="227" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -9947,7 +9962,7 @@
       <c r="AL227" s="3"/>
       <c r="AM227" s="3"/>
     </row>
-    <row r="228" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -9986,7 +10001,7 @@
       <c r="AL228" s="3"/>
       <c r="AM228" s="3"/>
     </row>
-    <row r="229" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -10025,7 +10040,7 @@
       <c r="AL229" s="3"/>
       <c r="AM229" s="3"/>
     </row>
-    <row r="230" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -10064,7 +10079,7 @@
       <c r="AL230" s="3"/>
       <c r="AM230" s="3"/>
     </row>
-    <row r="231" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -10103,7 +10118,7 @@
       <c r="AL231" s="3"/>
       <c r="AM231" s="3"/>
     </row>
-    <row r="232" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -10142,7 +10157,7 @@
       <c r="AL232" s="3"/>
       <c r="AM232" s="3"/>
     </row>
-    <row r="233" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -10181,7 +10196,7 @@
       <c r="AL233" s="3"/>
       <c r="AM233" s="3"/>
     </row>
-    <row r="234" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -10220,7 +10235,7 @@
       <c r="AL234" s="3"/>
       <c r="AM234" s="3"/>
     </row>
-    <row r="235" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -10259,7 +10274,7 @@
       <c r="AL235" s="3"/>
       <c r="AM235" s="3"/>
     </row>
-    <row r="236" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -10298,7 +10313,7 @@
       <c r="AL236" s="3"/>
       <c r="AM236" s="3"/>
     </row>
-    <row r="237" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -10337,7 +10352,7 @@
       <c r="AL237" s="3"/>
       <c r="AM237" s="3"/>
     </row>
-    <row r="238" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -10376,7 +10391,7 @@
       <c r="AL238" s="3"/>
       <c r="AM238" s="3"/>
     </row>
-    <row r="239" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -10415,7 +10430,7 @@
       <c r="AL239" s="3"/>
       <c r="AM239" s="3"/>
     </row>
-    <row r="240" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -10454,7 +10469,7 @@
       <c r="AL240" s="3"/>
       <c r="AM240" s="3"/>
     </row>
-    <row r="241" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -10493,7 +10508,7 @@
       <c r="AL241" s="3"/>
       <c r="AM241" s="3"/>
     </row>
-    <row r="242" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -10532,7 +10547,7 @@
       <c r="AL242" s="3"/>
       <c r="AM242" s="3"/>
     </row>
-    <row r="243" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -10571,7 +10586,7 @@
       <c r="AL243" s="3"/>
       <c r="AM243" s="3"/>
     </row>
-    <row r="244" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -10610,7 +10625,7 @@
       <c r="AL244" s="3"/>
       <c r="AM244" s="3"/>
     </row>
-    <row r="245" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -10649,7 +10664,7 @@
       <c r="AL245" s="3"/>
       <c r="AM245" s="3"/>
     </row>
-    <row r="246" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -10688,7 +10703,7 @@
       <c r="AL246" s="3"/>
       <c r="AM246" s="3"/>
     </row>
-    <row r="247" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -10727,7 +10742,7 @@
       <c r="AL247" s="3"/>
       <c r="AM247" s="3"/>
     </row>
-    <row r="248" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -10766,7 +10781,7 @@
       <c r="AL248" s="3"/>
       <c r="AM248" s="3"/>
     </row>
-    <row r="249" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -10805,7 +10820,7 @@
       <c r="AL249" s="3"/>
       <c r="AM249" s="3"/>
     </row>
-    <row r="250" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -10844,7 +10859,7 @@
       <c r="AL250" s="3"/>
       <c r="AM250" s="3"/>
     </row>
-    <row r="251" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -10883,7 +10898,7 @@
       <c r="AL251" s="3"/>
       <c r="AM251" s="3"/>
     </row>
-    <row r="252" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -10922,7 +10937,7 @@
       <c r="AL252" s="3"/>
       <c r="AM252" s="3"/>
     </row>
-    <row r="253" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -10961,7 +10976,7 @@
       <c r="AL253" s="3"/>
       <c r="AM253" s="3"/>
     </row>
-    <row r="254" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -11000,7 +11015,7 @@
       <c r="AL254" s="3"/>
       <c r="AM254" s="3"/>
     </row>
-    <row r="255" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -11039,7 +11054,7 @@
       <c r="AL255" s="3"/>
       <c r="AM255" s="3"/>
     </row>
-    <row r="256" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -11078,7 +11093,7 @@
       <c r="AL256" s="3"/>
       <c r="AM256" s="3"/>
     </row>
-    <row r="257" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -11117,7 +11132,7 @@
       <c r="AL257" s="3"/>
       <c r="AM257" s="3"/>
     </row>
-    <row r="258" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -11156,7 +11171,7 @@
       <c r="AL258" s="3"/>
       <c r="AM258" s="3"/>
     </row>
-    <row r="259" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -11195,7 +11210,7 @@
       <c r="AL259" s="3"/>
       <c r="AM259" s="3"/>
     </row>
-    <row r="260" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -11234,7 +11249,7 @@
       <c r="AL260" s="3"/>
       <c r="AM260" s="3"/>
     </row>
-    <row r="261" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -11273,7 +11288,7 @@
       <c r="AL261" s="3"/>
       <c r="AM261" s="3"/>
     </row>
-    <row r="262" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -11312,7 +11327,7 @@
       <c r="AL262" s="3"/>
       <c r="AM262" s="3"/>
     </row>
-    <row r="263" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -11351,7 +11366,7 @@
       <c r="AL263" s="3"/>
       <c r="AM263" s="3"/>
     </row>
-    <row r="264" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -11390,7 +11405,7 @@
       <c r="AL264" s="3"/>
       <c r="AM264" s="3"/>
     </row>
-    <row r="265" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -11429,7 +11444,7 @@
       <c r="AL265" s="3"/>
       <c r="AM265" s="3"/>
     </row>
-    <row r="266" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -11468,7 +11483,7 @@
       <c r="AL266" s="3"/>
       <c r="AM266" s="3"/>
     </row>
-    <row r="267" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -11507,7 +11522,7 @@
       <c r="AL267" s="3"/>
       <c r="AM267" s="3"/>
     </row>
-    <row r="268" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -11546,7 +11561,7 @@
       <c r="AL268" s="3"/>
       <c r="AM268" s="3"/>
     </row>
-    <row r="269" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -11585,7 +11600,7 @@
       <c r="AL269" s="3"/>
       <c r="AM269" s="3"/>
     </row>
-    <row r="270" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -11624,7 +11639,7 @@
       <c r="AL270" s="3"/>
       <c r="AM270" s="3"/>
     </row>
-    <row r="271" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -11663,7 +11678,7 @@
       <c r="AL271" s="3"/>
       <c r="AM271" s="3"/>
     </row>
-    <row r="272" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -11702,7 +11717,7 @@
       <c r="AL272" s="3"/>
       <c r="AM272" s="3"/>
     </row>
-    <row r="273" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -11741,7 +11756,7 @@
       <c r="AL273" s="3"/>
       <c r="AM273" s="3"/>
     </row>
-    <row r="274" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -11780,7 +11795,7 @@
       <c r="AL274" s="3"/>
       <c r="AM274" s="3"/>
     </row>
-    <row r="275" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -11819,7 +11834,7 @@
       <c r="AL275" s="3"/>
       <c r="AM275" s="3"/>
     </row>
-    <row r="276" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -11858,7 +11873,7 @@
       <c r="AL276" s="3"/>
       <c r="AM276" s="3"/>
     </row>
-    <row r="277" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -11897,7 +11912,7 @@
       <c r="AL277" s="3"/>
       <c r="AM277" s="3"/>
     </row>
-    <row r="278" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -11936,7 +11951,7 @@
       <c r="AL278" s="3"/>
       <c r="AM278" s="3"/>
     </row>
-    <row r="279" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -11975,7 +11990,7 @@
       <c r="AL279" s="3"/>
       <c r="AM279" s="3"/>
     </row>
-    <row r="280" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -12014,7 +12029,7 @@
       <c r="AL280" s="3"/>
       <c r="AM280" s="3"/>
     </row>
-    <row r="281" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -12053,7 +12068,7 @@
       <c r="AL281" s="3"/>
       <c r="AM281" s="3"/>
     </row>
-    <row r="282" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -12092,7 +12107,7 @@
       <c r="AL282" s="3"/>
       <c r="AM282" s="3"/>
     </row>
-    <row r="283" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -12131,7 +12146,7 @@
       <c r="AL283" s="3"/>
       <c r="AM283" s="3"/>
     </row>
-    <row r="284" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -12170,7 +12185,7 @@
       <c r="AL284" s="3"/>
       <c r="AM284" s="3"/>
     </row>
-    <row r="285" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -12209,7 +12224,7 @@
       <c r="AL285" s="3"/>
       <c r="AM285" s="3"/>
     </row>
-    <row r="286" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -12248,7 +12263,7 @@
       <c r="AL286" s="3"/>
       <c r="AM286" s="3"/>
     </row>
-    <row r="287" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -12287,7 +12302,7 @@
       <c r="AL287" s="3"/>
       <c r="AM287" s="3"/>
     </row>
-    <row r="288" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -12326,7 +12341,7 @@
       <c r="AL288" s="3"/>
       <c r="AM288" s="3"/>
     </row>
-    <row r="289" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -12365,7 +12380,7 @@
       <c r="AL289" s="3"/>
       <c r="AM289" s="3"/>
     </row>
-    <row r="290" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -12404,7 +12419,7 @@
       <c r="AL290" s="3"/>
       <c r="AM290" s="3"/>
     </row>
-    <row r="291" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -12443,7 +12458,7 @@
       <c r="AL291" s="3"/>
       <c r="AM291" s="3"/>
     </row>
-    <row r="292" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -12482,7 +12497,7 @@
       <c r="AL292" s="3"/>
       <c r="AM292" s="3"/>
     </row>
-    <row r="293" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -12521,7 +12536,7 @@
       <c r="AL293" s="3"/>
       <c r="AM293" s="3"/>
     </row>
-    <row r="294" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -12560,7 +12575,7 @@
       <c r="AL294" s="3"/>
       <c r="AM294" s="3"/>
     </row>
-    <row r="295" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -12599,7 +12614,7 @@
       <c r="AL295" s="3"/>
       <c r="AM295" s="3"/>
     </row>
-    <row r="296" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -12638,7 +12653,7 @@
       <c r="AL296" s="3"/>
       <c r="AM296" s="3"/>
     </row>
-    <row r="297" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -12677,7 +12692,7 @@
       <c r="AL297" s="3"/>
       <c r="AM297" s="3"/>
     </row>
-    <row r="298" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -12716,7 +12731,7 @@
       <c r="AL298" s="3"/>
       <c r="AM298" s="3"/>
     </row>
-    <row r="299" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -12755,7 +12770,7 @@
       <c r="AL299" s="3"/>
       <c r="AM299" s="3"/>
     </row>
-    <row r="300" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -12794,7 +12809,7 @@
       <c r="AL300" s="3"/>
       <c r="AM300" s="3"/>
     </row>
-    <row r="301" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -12833,7 +12848,7 @@
       <c r="AL301" s="3"/>
       <c r="AM301" s="3"/>
     </row>
-    <row r="302" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -12872,7 +12887,7 @@
       <c r="AL302" s="3"/>
       <c r="AM302" s="3"/>
     </row>
-    <row r="303" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -12911,7 +12926,7 @@
       <c r="AL303" s="3"/>
       <c r="AM303" s="3"/>
     </row>
-    <row r="304" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -12950,7 +12965,7 @@
       <c r="AL304" s="3"/>
       <c r="AM304" s="3"/>
     </row>
-    <row r="305" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -12989,7 +13004,7 @@
       <c r="AL305" s="3"/>
       <c r="AM305" s="3"/>
     </row>
-    <row r="306" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -13028,7 +13043,7 @@
       <c r="AL306" s="3"/>
       <c r="AM306" s="3"/>
     </row>
-    <row r="307" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -13067,7 +13082,7 @@
       <c r="AL307" s="3"/>
       <c r="AM307" s="3"/>
     </row>
-    <row r="308" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -13106,7 +13121,7 @@
       <c r="AL308" s="3"/>
       <c r="AM308" s="3"/>
     </row>
-    <row r="309" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -13145,7 +13160,7 @@
       <c r="AL309" s="3"/>
       <c r="AM309" s="3"/>
     </row>
-    <row r="310" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -13184,7 +13199,7 @@
       <c r="AL310" s="3"/>
       <c r="AM310" s="3"/>
     </row>
-    <row r="311" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -13223,7 +13238,7 @@
       <c r="AL311" s="3"/>
       <c r="AM311" s="3"/>
     </row>
-    <row r="312" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -13262,7 +13277,7 @@
       <c r="AL312" s="3"/>
       <c r="AM312" s="3"/>
     </row>
-    <row r="313" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -13301,7 +13316,7 @@
       <c r="AL313" s="3"/>
       <c r="AM313" s="3"/>
     </row>
-    <row r="314" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -13340,7 +13355,7 @@
       <c r="AL314" s="3"/>
       <c r="AM314" s="3"/>
     </row>
-    <row r="315" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -13379,7 +13394,7 @@
       <c r="AL315" s="3"/>
       <c r="AM315" s="3"/>
     </row>
-    <row r="316" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -13418,7 +13433,7 @@
       <c r="AL316" s="3"/>
       <c r="AM316" s="3"/>
     </row>
-    <row r="317" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -13457,7 +13472,7 @@
       <c r="AL317" s="3"/>
       <c r="AM317" s="3"/>
     </row>
-    <row r="318" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -13496,7 +13511,7 @@
       <c r="AL318" s="3"/>
       <c r="AM318" s="3"/>
     </row>
-    <row r="319" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -13535,7 +13550,7 @@
       <c r="AL319" s="3"/>
       <c r="AM319" s="3"/>
     </row>
-    <row r="320" spans="3:39" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:39" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
